--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200615.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200615.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\chongqing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7492790-86ED-42B2-87A5-1DC017ADA6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="9120"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10344,7 +10350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10521,6 +10527,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10783,64 +10792,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF51"/>
+      <selection activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.53515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="15" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="4.1796875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.69140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.4609375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.15234375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.921875" style="14" customWidth="1"/>
     <col min="10" max="10" width="11" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.69140625" style="14" customWidth="1"/>
     <col min="12" max="12" width="11" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.26953125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.08984375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.23046875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.07421875" style="12" customWidth="1"/>
     <col min="15" max="15" width="21" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18.90625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="21.453125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="12" customWidth="1"/>
-    <col min="23" max="23" width="9.36328125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="11.81640625" style="12" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="12" customWidth="1"/>
-    <col min="26" max="26" width="17.7265625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="110.36328125" style="14" customWidth="1"/>
-    <col min="28" max="28" width="50.7265625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="15.453125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="17.453125" style="12" customWidth="1"/>
-    <col min="32" max="32" width="15.7265625" style="12" customWidth="1"/>
-    <col min="33" max="33" width="11.6328125" style="12" customWidth="1"/>
-    <col min="34" max="34" width="19.08984375" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.453125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.4609375" style="14" customWidth="1"/>
+    <col min="17" max="17" width="12.4609375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="12.4609375" style="14" customWidth="1"/>
+    <col min="19" max="19" width="12.4609375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="18.921875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="21.4609375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="15.07421875" style="12" customWidth="1"/>
+    <col min="23" max="23" width="9.3828125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="11.84375" style="12" customWidth="1"/>
+    <col min="25" max="25" width="13.15234375" style="12" customWidth="1"/>
+    <col min="26" max="26" width="17.69140625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="110.3828125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="50.69140625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="15.4609375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="17.4609375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="15.69140625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="11.61328125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="19.07421875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.90625" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.90625" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.90625" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.453125" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.08984375" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.90625" style="12"/>
+    <col min="46" max="46" width="5.07421875" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10980,7 +10989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="16.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -10988,10 +10997,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D2" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>47</v>
@@ -11056,7 +11065,7 @@
       <c r="AO2" s="13"/>
       <c r="AP2" s="13"/>
     </row>
-    <row r="3" spans="1:46" ht="16.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11064,10 +11073,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D3" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>47</v>
@@ -11127,7 +11136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="16.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -11135,10 +11144,10 @@
         <v>53</v>
       </c>
       <c r="C4" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D4" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>47</v>
@@ -11196,7 +11205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="16.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11204,10 +11213,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D5" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>47</v>
@@ -11265,7 +11274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -11273,10 +11282,10 @@
         <v>53</v>
       </c>
       <c r="C6" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D6" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>47</v>
@@ -11334,7 +11343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="16.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11342,10 +11351,10 @@
         <v>53</v>
       </c>
       <c r="C7" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D7" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>47</v>
@@ -11403,7 +11412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="16.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -11411,10 +11420,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D8" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>47</v>
@@ -11472,7 +11481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="16.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11480,10 +11489,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D9" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>47</v>
@@ -11541,7 +11550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="16.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -11549,10 +11558,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D10" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>47</v>
@@ -11612,7 +11621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="16.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11620,10 +11629,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D11" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>47</v>
@@ -11681,7 +11690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="16.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -11689,10 +11698,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D12" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>47</v>
@@ -11746,7 +11755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="16.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11754,10 +11763,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D13" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>47</v>
@@ -11815,7 +11824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="16.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -11823,10 +11832,10 @@
         <v>53</v>
       </c>
       <c r="C14" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D14" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>47</v>
@@ -11884,7 +11893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="16.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11892,10 +11901,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D15" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>47</v>
@@ -11957,7 +11966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="16.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -11965,10 +11974,10 @@
         <v>53</v>
       </c>
       <c r="C16" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D16" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>47</v>
@@ -12026,7 +12035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="16.2">
+    <row r="17" spans="1:35">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -12034,10 +12043,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D17" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>47</v>
@@ -12095,7 +12104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="16.2">
+    <row r="18" spans="1:35">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -12103,10 +12112,10 @@
         <v>53</v>
       </c>
       <c r="C18" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D18" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>47</v>
@@ -12164,7 +12173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="16.2">
+    <row r="19" spans="1:35">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12172,10 +12181,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D19" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>47</v>
@@ -12229,7 +12238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="16.2">
+    <row r="20" spans="1:35">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -12237,10 +12246,10 @@
         <v>53</v>
       </c>
       <c r="C20" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D20" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>47</v>
@@ -12298,7 +12307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="16.2">
+    <row r="21" spans="1:35">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12306,10 +12315,10 @@
         <v>53</v>
       </c>
       <c r="C21" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D21" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>47</v>
@@ -12367,7 +12376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="16.2">
+    <row r="22" spans="1:35">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -12375,10 +12384,10 @@
         <v>53</v>
       </c>
       <c r="C22" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D22" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>47</v>
@@ -12436,7 +12445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16.2">
+    <row r="23" spans="1:35">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -12444,10 +12453,10 @@
         <v>53</v>
       </c>
       <c r="C23" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D23" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>47</v>
@@ -12505,7 +12514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="16.2">
+    <row r="24" spans="1:35">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -12513,10 +12522,10 @@
         <v>53</v>
       </c>
       <c r="C24" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D24" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>47</v>
@@ -12574,7 +12583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="16.2">
+    <row r="25" spans="1:35">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -12582,10 +12591,10 @@
         <v>53</v>
       </c>
       <c r="C25" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D25" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>47</v>
@@ -12643,7 +12652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="16.2">
+    <row r="26" spans="1:35">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -12651,10 +12660,10 @@
         <v>53</v>
       </c>
       <c r="C26" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D26" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>47</v>
@@ -12714,7 +12723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="16.2">
+    <row r="27" spans="1:35">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -12722,10 +12731,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D27" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>47</v>
@@ -12783,7 +12792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="16.2">
+    <row r="28" spans="1:35">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -12791,10 +12800,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D28" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>47</v>
@@ -12852,7 +12861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="16.2">
+    <row r="29" spans="1:35">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -12860,10 +12869,10 @@
         <v>53</v>
       </c>
       <c r="C29" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D29" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>47</v>
@@ -12921,7 +12930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="16.2">
+    <row r="30" spans="1:35">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -12929,10 +12938,10 @@
         <v>53</v>
       </c>
       <c r="C30" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D30" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>47</v>
@@ -12990,7 +12999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="16.2">
+    <row r="31" spans="1:35">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -12998,10 +13007,10 @@
         <v>53</v>
       </c>
       <c r="C31" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D31" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>47</v>
@@ -13059,7 +13068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="16.2">
+    <row r="32" spans="1:35">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -13067,10 +13076,10 @@
         <v>53</v>
       </c>
       <c r="C32" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D32" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>47</v>
@@ -13128,7 +13137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="16.2">
+    <row r="33" spans="1:35">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -13136,10 +13145,10 @@
         <v>53</v>
       </c>
       <c r="C33" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D33" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>47</v>
@@ -13197,7 +13206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="16.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -13205,10 +13214,10 @@
         <v>53</v>
       </c>
       <c r="C34" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D34" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>47</v>
@@ -13266,7 +13275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="16.2">
+    <row r="35" spans="1:35">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -13274,10 +13283,10 @@
         <v>53</v>
       </c>
       <c r="C35" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D35" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>47</v>
@@ -13335,7 +13344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="16.2">
+    <row r="36" spans="1:35">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -13343,10 +13352,10 @@
         <v>53</v>
       </c>
       <c r="C36" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D36" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>47</v>
@@ -13404,7 +13413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="16.2">
+    <row r="37" spans="1:35">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -13412,10 +13421,10 @@
         <v>53</v>
       </c>
       <c r="C37" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D37" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>47</v>
@@ -13473,7 +13482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="16.2">
+    <row r="38" spans="1:35">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -13481,10 +13490,10 @@
         <v>53</v>
       </c>
       <c r="C38" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D38" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>47</v>
@@ -13542,7 +13551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="16.2">
+    <row r="39" spans="1:35">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -13550,10 +13559,10 @@
         <v>53</v>
       </c>
       <c r="C39" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D39" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>47</v>
@@ -13611,7 +13620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="16.2">
+    <row r="40" spans="1:35">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -13619,10 +13628,10 @@
         <v>53</v>
       </c>
       <c r="C40" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D40" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>47</v>
@@ -13680,7 +13689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="16.2">
+    <row r="41" spans="1:35">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -13688,10 +13697,10 @@
         <v>53</v>
       </c>
       <c r="C41" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D41" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>47</v>
@@ -13749,7 +13758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="16.2">
+    <row r="42" spans="1:35">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -13757,10 +13766,10 @@
         <v>53</v>
       </c>
       <c r="C42" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D42" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>47</v>
@@ -13818,7 +13827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="16.2">
+    <row r="43" spans="1:35">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -13826,10 +13835,10 @@
         <v>53</v>
       </c>
       <c r="C43" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D43" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>47</v>
@@ -13887,7 +13896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="16.2">
+    <row r="44" spans="1:35">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -13895,10 +13904,10 @@
         <v>53</v>
       </c>
       <c r="C44" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D44" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>47</v>
@@ -13960,7 +13969,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="16.2">
+    <row r="45" spans="1:35">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -13968,10 +13977,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D45" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>47</v>
@@ -14031,7 +14040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="16.2">
+    <row r="46" spans="1:35">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -14039,10 +14048,10 @@
         <v>96</v>
       </c>
       <c r="C46" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D46" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>47</v>
@@ -14102,7 +14111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="16.2">
+    <row r="47" spans="1:35">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -14110,10 +14119,10 @@
         <v>96</v>
       </c>
       <c r="C47" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D47" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>47</v>
@@ -14173,7 +14182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="16.2">
+    <row r="48" spans="1:35">
       <c r="A48" s="19">
         <v>46</v>
       </c>
@@ -14181,10 +14190,10 @@
         <v>96</v>
       </c>
       <c r="C48" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D48" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>47</v>
@@ -14242,7 +14251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="16.2">
+    <row r="49" spans="1:35">
       <c r="A49" s="19">
         <v>46</v>
       </c>
@@ -14250,10 +14259,10 @@
         <v>96</v>
       </c>
       <c r="C49" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D49" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>47</v>
@@ -14311,7 +14320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="16.2">
+    <row r="50" spans="1:35">
       <c r="A50" s="19">
         <v>46</v>
       </c>
@@ -14319,10 +14328,10 @@
         <v>3307</v>
       </c>
       <c r="C50" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D50" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>47</v>
@@ -14380,7 +14389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="16.2">
+    <row r="51" spans="1:35">
       <c r="A51" s="19">
         <v>46</v>
       </c>
@@ -14388,10 +14397,10 @@
         <v>96</v>
       </c>
       <c r="C51" s="18">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D51" s="18">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>47</v>
@@ -14452,38 +14461,38 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG52:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG52:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R44 I52:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R44 I52:X1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B52:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B52:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI52:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI52:AI1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($G52)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($F52)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1"/>
-    <hyperlink ref="AB3:AB51" r:id="rId2" display="http://wsjkw.cq.gov.cn/ztzl_242/qlzhxxgzbdfyyqfkgz/yqtb/202006/t20200616_7575860.html"/>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB3:AB51" r:id="rId2" display="http://wsjkw.cq.gov.cn/ztzl_242/qlzhxxgzbdfyyqfkgz/yqtb/202006/t20200616_7575860.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -14496,7 +14505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -14504,10 +14513,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
